--- a/paper/Notation.xlsx
+++ b/paper/Notation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A9E865-32A2-40C1-82AC-CA7D5E70EE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188B31F-4595-4503-A478-49E3AE46FAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>GA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>#valves</t>
+  </si>
+  <si>
+    <t>S_n</t>
+  </si>
+  <si>
+    <t>normal data</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -759,6 +765,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>45</v>
